--- a/Test documentation (examples).xlsx
+++ b/Test documentation (examples).xlsx
@@ -177,8 +177,8 @@
     <r>
       <rPr/>
       <t xml:space="preserve"> 
-2. Input known username (Vdal);
-3. Input known password (scm123);
+2. Input known username;
+3. Input known password;
 4. Login</t>
     </r>
   </si>
@@ -1233,7 +1233,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
